--- a/data/trans_camb/P48_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P48_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>14,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,58</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 12,08</t>
+          <t>-5,78; 13,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 20,41</t>
+          <t>-2,22; 20,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 13,72</t>
+          <t>-6,15; 14,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 12,21</t>
+          <t>3,51; 28,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 8,23</t>
+          <t>-9,52; 12,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 10,28</t>
+          <t>-11,22; 8,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 9,27</t>
+          <t>-10,55; 10,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 10,26</t>
+          <t>-3,38; 19,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 8,63</t>
+          <t>-4,44; 10,44</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 10,72</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 9,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 20,84</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>57,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>-4,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42,67%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 53,68</t>
+          <t>-20,36; 65,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 93,66</t>
+          <t>-8,77; 95,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 63,17</t>
+          <t>-20,8; 69,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 52,95</t>
+          <t>11,74; 131,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 35,85</t>
+          <t>-28,41; 52,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 43,19</t>
+          <t>-32,33; 37,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 38,15</t>
+          <t>-30,72; 46,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 43,08</t>
+          <t>-11,0; 87,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 36,1</t>
+          <t>-14,53; 46,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-14,42; 43,85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-18,43; 37,12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 89,5</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>14,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 10,56</t>
+          <t>-11,97; 12,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 11,88</t>
+          <t>-6,41; 13,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 15,39</t>
+          <t>-4,88; 15,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 9,97</t>
+          <t>-3,88; 21,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 12,99</t>
+          <t>-10,45; 10,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 13,56</t>
+          <t>-3,63; 13,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 6,92</t>
+          <t>-3,34; 14,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 10,74</t>
+          <t>5,4; 24,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 11,6</t>
+          <t>-7,79; 7,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 10,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 12,36</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 19,84</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>49,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,81%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19,58%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>40,88%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 48,48</t>
+          <t>-38,35; 57,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 54,75</t>
+          <t>-19,4; 63,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 71,21</t>
+          <t>-16,87; 71,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 38,05</t>
+          <t>-12,45; 94,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 51,19</t>
+          <t>-30,32; 43,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 50,4</t>
+          <t>-10,34; 52,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 27,39</t>
+          <t>-10,24; 55,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 44,15</t>
+          <t>15,08; 92,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 46,67</t>
+          <t>-25,19; 30,76</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-8,72; 41,82</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 50,71</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 78,59</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,97</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 14,16</t>
+          <t>-8,13; 15,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 4,32</t>
+          <t>-14,2; 4,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 8,69</t>
+          <t>-10,96; 9,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 3,43</t>
+          <t>-5,2; 15,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 6,4</t>
+          <t>-12,22; 4,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 7,85</t>
+          <t>-8,07; 6,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 6,36</t>
+          <t>-6,43; 8,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 2,85</t>
+          <t>2,01; 17,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 5,75</t>
+          <t>-7,51; 5,86</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 2,85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 5,88</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 14,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,33%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,52%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>-8,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,57%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,08%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-6,65%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 33,61</t>
+          <t>-15,55; 38,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 10,43</t>
+          <t>-27,27; 12,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 20,36</t>
+          <t>-21,37; 24,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 8,76</t>
+          <t>-10,19; 35,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 17,34</t>
+          <t>-26,07; 10,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 20,36</t>
+          <t>-17,24; 16,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 15,8</t>
+          <t>-13,62; 22,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 6,95</t>
+          <t>4,17; 45,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 14,12</t>
+          <t>-15,74; 13,9</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-18,95; 6,9</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-12,74; 14,4</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 33,71</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 9,7</t>
+          <t>-8,72; 10,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 11,7</t>
+          <t>-4,86; 11,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 16,48</t>
+          <t>-1,56; 15,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 10,65</t>
+          <t>-4,15; 13,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 4,21</t>
+          <t>-5,72; 11,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 2,19</t>
+          <t>-10,56; 4,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 8,0</t>
+          <t>-10,96; 2,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 5,42</t>
+          <t>-4,92; 10,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 6,63</t>
+          <t>-4,19; 7,53</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 6,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 7,14</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 10,08</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-9,63%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,26%</t>
+          <t>-9,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>-11,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,07; 29,1</t>
+          <t>-22,03; 34,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 37,18</t>
+          <t>-12,04; 36,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 52,76</t>
+          <t>-4,6; 48,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 31,94</t>
+          <t>-9,93; 42,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 12,58</t>
+          <t>-14,43; 35,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 7,12</t>
+          <t>-26,48; 14,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 24,13</t>
+          <t>-28,25; 7,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 16,04</t>
+          <t>-12,22; 31,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 19,72</t>
+          <t>-10,98; 21,95</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-14,38; 18,06</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-10,73; 20,8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 29,73</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5,3</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 15,1</t>
+          <t>-2,87; 14,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 13,97</t>
+          <t>-2,05; 14,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 12,42</t>
+          <t>-3,51; 12,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 10,85</t>
+          <t>-3,07; 14,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 12,73</t>
+          <t>-4,54; 12,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 11,53</t>
+          <t>-3,08; 13,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 9,91</t>
+          <t>-3,38; 13,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 10,83</t>
+          <t>-3,34; 13,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 9,62</t>
+          <t>-1,68; 10,16</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 10,42</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 9,83</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 11,08</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>23,23%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>22,54%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 77,22</t>
+          <t>-11,91; 76,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 74,38</t>
+          <t>-7,76; 80,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 64,87</t>
+          <t>-13,47; 69,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 54,72</t>
+          <t>-11,23; 78,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 67,01</t>
+          <t>-17,46; 64,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 61,12</t>
+          <t>-11,39; 69,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 49,27</t>
+          <t>-13,13; 69,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 52,69</t>
+          <t>-13,32; 73,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 48,08</t>
+          <t>-7,21; 51,11</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 52,55</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 49,41</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 54,73</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 13,56</t>
+          <t>-6,79; 13,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 15,99</t>
+          <t>-3,64; 14,2</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 7,41</t>
+          <t>-7,69; 7,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 7,92</t>
+          <t>-2,78; 15,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 3,83</t>
+          <t>-4,56; 9,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 3,13</t>
+          <t>-6,65; 4,3</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 6,8</t>
+          <t>-6,82; 4,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 6,96</t>
+          <t>-5,16; 8,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 3,33</t>
+          <t>-2,89; 8,4</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 6,4</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 3,53</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 9,17</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-14,1%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-14,62%</t>
+          <t>-12,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>-12,22%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-5,94%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>20,41%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 85,21</t>
+          <t>-33,55; 91,15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 105,89</t>
+          <t>-18,49; 94,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 49,57</t>
+          <t>-35,4; 48,93</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 75,26</t>
+          <t>-13,32; 102,69</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 39,61</t>
+          <t>-30,25; 94,53</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-50,62; 31,36</t>
+          <t>-43,63; 45,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 51,94</t>
+          <t>-44,43; 41,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 51,48</t>
+          <t>-35,07; 81,27</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 25,04</t>
+          <t>-17,08; 67,35</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-21,86; 50,02</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-30,35; 28,58</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-13,63; 72,43</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 6,19</t>
+          <t>-2,02; 6,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 6,86</t>
+          <t>-1,02; 7,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,64</t>
+          <t>-0,23; 7,73</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 3,94</t>
+          <t>2,87; 11,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 3,25</t>
+          <t>-2,48; 4,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,7</t>
+          <t>-3,4; 3,36</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,73</t>
+          <t>-2,68; 3,89</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,81</t>
+          <t>2,53; 10,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,44</t>
+          <t>-1,42; 4,52</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 4,04</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 4,61</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3,89; 9,77</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>22,59%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 21,86</t>
+          <t>-6,24; 24,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 24,01</t>
+          <t>-3,42; 25,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 23,67</t>
+          <t>-0,79; 27,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 14,34</t>
+          <t>9,11; 39,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 11,87</t>
+          <t>-8,12; 17,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 13,56</t>
+          <t>-11,02; 12,22</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 13,05</t>
+          <t>-8,88; 14,03</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 13,36</t>
+          <t>8,38; 36,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 15,77</t>
+          <t>-4,62; 15,72</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-2,82; 14,21</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 15,99</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>12,73; 33,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
